--- a/Filds_Mapping.xlsx
+++ b/Filds_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CZ011845\Documents\_Moje_Dokumenty\VASKO_TechDesign\Projects\Others\BlueCoin-Wallet_migration_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE622F5-7E89-48F8-A442-FBD7E5E57794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B7D50-477C-484F-9C4F-8F5F78312011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{7813E33F-62E0-435A-9D17-BC25B74F41D6}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{7813E33F-62E0-435A-9D17-BC25B74F41D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Fields_mapping" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
   <si>
     <t>Bluecoins</t>
   </si>
@@ -112,13 +112,70 @@
   </si>
   <si>
     <t>Place</t>
+  </si>
+  <si>
+    <t>Amount_LCY</t>
+  </si>
+  <si>
+    <t>- recalculated from Amount/Exchange rate</t>
+  </si>
+  <si>
+    <t>- poznámka k original amount bude na prvním řádku případně</t>
+  </si>
+  <si>
+    <t>Transferes</t>
+  </si>
+  <si>
+    <t>From_Amount</t>
+  </si>
+  <si>
+    <t>From_Amount_LCY</t>
+  </si>
+  <si>
+    <t>To_Amount</t>
+  </si>
+  <si>
+    <t>To_Amount_LCY</t>
+  </si>
+  <si>
+    <t>- brát z řádku který parří Transfer To</t>
+  </si>
+  <si>
+    <t>- brát z řádku který parří Transfer From</t>
+  </si>
+  <si>
+    <t>From_Currency</t>
+  </si>
+  <si>
+    <t>To_Currency</t>
+  </si>
+  <si>
+    <t>From_Exchange Rate</t>
+  </si>
+  <si>
+    <t>To_Exchange Rate</t>
+  </si>
+  <si>
+    <t>From_Account</t>
+  </si>
+  <si>
+    <t>to_Account</t>
+  </si>
+  <si>
+    <t>Value: "Transfer"</t>
+  </si>
+  <si>
+    <t>- použít jen z Transfer From</t>
+  </si>
+  <si>
+    <t>Original_Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,16 +192,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -152,24 +230,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E838B39-B729-497D-BAE0-86222FD4AE0E}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,153 +771,365 @@
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="F1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C3" s="10"/>
+      <c r="F3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C5" s="4"/>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C6" s="4"/>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="4"/>
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C11" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="22"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" s="4"/>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C14" s="4"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C16" s="4"/>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C17" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C18" s="4"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="C19" s="7"/>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+      <c r="G21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="5"/>
+      <c r="G23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B10:B11"/>
+  <mergeCells count="6">
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Filds_Mapping.xlsx
+++ b/Filds_Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CZ011845\Documents\_Moje_Dokumenty\VASKO_TechDesign\Projects\Others\BlueCoin-Wallet_migration_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55B7D50-477C-484F-9C4F-8F5F78312011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D414A0C-D362-4509-980E-F3419FD58DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{7813E33F-62E0-435A-9D17-BC25B74F41D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7813E33F-62E0-435A-9D17-BC25B74F41D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Fields_mapping" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="47">
   <si>
     <t>Bluecoins</t>
   </si>
@@ -169,13 +169,19 @@
   </si>
   <si>
     <t>Original_Value</t>
+  </si>
+  <si>
+    <t>- none mapuje na Uncleared</t>
+  </si>
+  <si>
+    <t>- delete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,14 +196,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -408,26 +406,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,10 +437,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +757,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,350 +771,356 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="F1" s="19" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="F1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="20"/>
-      <c r="H1" s="21"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="F3" s="8" t="s">
+      <c r="C3" s="7"/>
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="10"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="4"/>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="3"/>
+      <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="3"/>
+      <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="2" t="s">
+      <c r="C9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="2" t="s">
+      <c r="C10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="22"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="2" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="19"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="F13" s="3" t="s">
+      <c r="C13" s="3"/>
+      <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="22"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="F16" s="3" t="s">
+      <c r="C16" s="3"/>
+      <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="22"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="2" t="s">
+      <c r="C18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="F19" s="3" t="s">
+      <c r="C19" s="5"/>
+      <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21" s="3"/>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="2"/>
+      <c r="G21" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="4"/>
+      <c r="H22" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="5"/>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="7"/>
+      <c r="H23" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
